--- a/biology/Zoologie/Ancyluris_tedea/Ancyluris_tedea.xlsx
+++ b/biology/Zoologie/Ancyluris_tedea/Ancyluris_tedea.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Ancyluris tedea est un insecte lépidoptère appartenant à la famille  des Riodinidae et au genre Ancyluris.
 </t>
@@ -511,12 +523,12 @@
           <t>Taxonomie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>Ancyluris tedea a été décrit par Pieter Cramer en 1777 sous le nom de Papilio tedea[1].
-Sous-espèces
-Ancyluris tedea tedea au Surinam
-Ancyluris tedea silvicultrix Stichel, 1909; en Bolivie et au Pérou[1].</t>
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Ancyluris tedea a été décrit par Pieter Cramer en 1777 sous le nom de Papilio tedea.
+</t>
         </is>
       </c>
     </row>
@@ -541,13 +553,19 @@
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>Description</t>
+          <t>Taxonomie</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t xml:space="preserve">Ancyluris tedea est un papillon d'une envergure autour de 32 mm[2]. Le dessus est noir avec les ailes antérieures traversées d'une ligne rouge qui se continue aux ailes postérieures et se double d'une partielle ligne submarginale du même rouge.  Le revers est bleu métallique bordé et suffusé de noir avec juste une tache rouge rouge aux antérieures et une aux postérieures.
-</t>
+          <t>Sous-espèces</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>Ancyluris tedea tedea au Surinam
+Ancyluris tedea silvicultrix Stichel, 1909; en Bolivie et au Pérou.</t>
         </is>
       </c>
     </row>
@@ -572,10 +590,17 @@
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>Biologie</t>
+          <t>Description</t>
         </is>
       </c>
       <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Ancyluris tedea est un papillon d'une envergure autour de 32 mm. Le dessus est noir avec les ailes antérieures traversées d'une ligne rouge qui se continue aux ailes postérieures et se double d'une partielle ligne submarginale du même rouge.  Le revers est bleu métallique bordé et suffusé de noir avec juste une tache rouge rouge aux antérieures et une aux postérieures.
+</t>
+        </is>
+      </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="n">
@@ -598,16 +623,116 @@
       </c>
       <c r="E6" t="inlineStr">
         <is>
+          <t>Biologie</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr"/>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>Ancyluris_tedea</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Ancyluris_tedea</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
           <t>Écologie et distribution</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Ancyluris tedea est présent en Amérique du Sud sous forme de deux isolats, l'un en Guyane, en Guyana et au Surinam, l'autre en Bolivie et au Pérou[1].
-Biotope
-Il réside dans la forêt tropicale.
-Protection
-Pas de statut de protection particulier.
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Ancyluris tedea est présent en Amérique du Sud sous forme de deux isolats, l'un en Guyane, en Guyana et au Surinam, l'autre en Bolivie et au Pérou.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>Ancyluris_tedea</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Ancyluris_tedea</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>Écologie et distribution</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>Biotope</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Il réside dans la forêt tropicale.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>Ancyluris_tedea</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Ancyluris_tedea</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>Écologie et distribution</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>Protection</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr"/>
+      <c r="H9" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Pas de statut de protection particulier.
 </t>
         </is>
       </c>
